--- a/docs/03_内部設計/内部設計成果物.xlsx
+++ b/docs/03_内部設計/内部設計成果物.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="1" state="visible" r:id="rId3"/>
@@ -863,7 +863,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -874,6 +874,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.7999"/>
         <bgColor rgb="FFC6D9F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -977,176 +983,208 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1444,8 +1482,8 @@
   </sheetPr>
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1892,7 +1930,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2042,26 +2080,26 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+    <row r="7" s="21" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="20" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2261,9 +2299,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="30.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="59.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="22" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2295,7 +2333,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2309,268 +2347,268 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="26" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="26" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="26" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="26" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="26" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="26" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="26" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2600,38 +2638,38 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="44.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="30" width="48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="30" width="32.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="30" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="24" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="2"/>
@@ -2640,230 +2678,230 @@
       <c r="A2" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="32" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="25" t="s">
         <v>135</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="34" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="35" t="s">
         <v>143</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="36" t="s">
         <v>147</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="25" t="s">
         <v>134</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="32" t="s">
         <v>152</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="31" t="s">
         <v>157</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="25" t="s">
         <v>161</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="39" t="s">
         <v>166</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="36" t="s">
         <v>147</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="36" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="2"/>
@@ -2953,22 +2991,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="41" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3200,113 +3238,113 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="60"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="53.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="46.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="30" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="43" t="s">
         <v>207</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="45" t="s">
         <v>211</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="45" t="s">
         <v>215</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="45" t="s">
         <v>219</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="45" t="s">
         <v>223</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="48" t="s">
         <v>227</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="50" t="s">
         <v>232</v>
       </c>
     </row>

--- a/docs/03_内部設計/内部設計成果物.xlsx
+++ b/docs/03_内部設計/内部設計成果物.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="1" state="visible" r:id="rId3"/>
@@ -983,7 +983,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1154,6 +1154,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1443,7 +1447,7 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1482,8 +1486,8 @@
   </sheetPr>
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1930,7 +1934,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2222,25 +2226,25 @@
       </c>
     </row>
     <row r="13" s="2" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="20" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2330,10 +2334,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2613,6 +2617,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
@@ -2638,7 +2643,7 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2702,7 +2707,7 @@
       <c r="C3" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="31" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="33" t="s">
@@ -2976,7 +2981,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3131,22 +3136,22 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="43" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3242,109 +3247,109 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>207</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>211</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="46" t="s">
         <v>215</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="46" t="s">
         <v>219</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="46" t="s">
         <v>223</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="49" t="s">
         <v>227</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="51" t="s">
         <v>232</v>
       </c>
     </row>

--- a/docs/03_内部設計/内部設計成果物.xlsx
+++ b/docs/03_内部設計/内部設計成果物.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="241">
   <si>
     <t xml:space="preserve">https://app.diagrams.net/</t>
   </si>
@@ -211,6 +211,30 @@
     <t xml:space="preserve">ログイン処理</t>
   </si>
   <si>
+    <t xml:space="preserve">/logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">destroy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ログアウト処理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logout/confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LogoutController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ログアウト確認画面</t>
+  </si>
+  <si>
     <t xml:space="preserve">/register</t>
   </si>
   <si>
@@ -230,9 +254,6 @@
   </si>
   <si>
     <t xml:space="preserve">index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web.php</t>
   </si>
   <si>
     <t xml:space="preserve">            自分の学習記録一覧（認証必要）</t>
@@ -350,6 +371,15 @@
     <t xml:space="preserve">認証処理・バリデーションあり</t>
   </si>
   <si>
+    <t xml:space="preserve">要ログイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ログアウト確認画面を表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">新規登録画面を表示</t>
   </si>
   <si>
@@ -368,16 +398,10 @@
     <t xml:space="preserve">dashboard</t>
   </si>
   <si>
-    <t xml:space="preserve">要ログイン</t>
-  </si>
-  <si>
     <t xml:space="preserve">seach</t>
   </si>
   <si>
     <t xml:space="preserve">記録作成フォーム表示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">records/create</t>
@@ -801,7 +825,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +863,23 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -983,7 +1024,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1060,16 +1101,32 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1096,6 +1153,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1117,10 +1186,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1128,7 +1197,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1140,11 +1209,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1152,7 +1221,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1447,8 +1516,8 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1484,7 +1553,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:J26"/>
+  <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
@@ -1708,13 +1777,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="11" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
       <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" s="11" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" s="11" customFormat="true" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1931,10 +2010,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2019,17 +2098,17 @@
       <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="19" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>56</v>
@@ -2042,23 +2121,23 @@
       <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>62</v>
+      <c r="B5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2069,45 +2148,45 @@
         <v>52</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G6" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" s="21" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" s="22" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
@@ -2115,46 +2194,45 @@
         <v>52</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="D9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="E9" s="24" t="s">
         <v>77</v>
       </c>
+      <c r="F9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
@@ -2164,19 +2242,22 @@
         <v>52</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2184,19 +2265,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>84</v>
@@ -2213,42 +2294,42 @@
         <v>85</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="n">
+    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="20" t="s">
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="2" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>13</v>
       </c>
@@ -2262,61 +2343,111 @@
         <v>93</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="18" t="s">
+      <c r="C17" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="59.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="H19" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="59.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="H21" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2334,10 +2465,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2351,280 +2482,317 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="29"/>
+      <c r="B9" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="B15" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="D16" s="31" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="E16" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="26" t="s">
+      <c r="F16" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2643,270 +2811,270 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="44.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="30" width="48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="30" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="30" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="37" width="44.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="37" width="48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="37" width="32.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="37" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="24" t="s">
+      <c r="A1" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" s="2" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>134</v>
+      <c r="C2" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>138</v>
+      <c r="C3" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="D6" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29"/>
+      <c r="B7" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25" t="s">
+      <c r="D7" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45"/>
+      <c r="B9" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45"/>
+      <c r="B10" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="45"/>
+      <c r="B11" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25"/>
-      <c r="B7" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="32" t="s">
+      <c r="C12" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="36" t="s">
+      <c r="D12" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38"/>
-      <c r="B9" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38"/>
-      <c r="B10" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38"/>
-      <c r="B11" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>147</v>
-      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="36" t="s">
+      <c r="C13" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="43" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="2"/>
@@ -2981,7 +3149,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2996,223 +3164,223 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>179</v>
+      <c r="A1" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>116</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>116</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43" t="s">
+      <c r="E8" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="50" t="s">
         <v>194</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>116</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>116</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3243,114 +3411,114 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="60"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="53.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="46.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="30" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="37" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>207</v>
+      <c r="A1" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>215</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>211</v>
+      <c r="A2" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>219</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>215</v>
+      <c r="A3" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>223</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>219</v>
+      <c r="A4" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>227</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>223</v>
+      <c r="A5" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>231</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>227</v>
+      <c r="A6" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>235</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>232</v>
+      <c r="A7" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
